--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-P.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-P.RS0001.a205.xlsx
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-P.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-P.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,42 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +491,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +532,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1106,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1125,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'P': 450.0 ton, 2.20 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'P': 300.0-600.0 ton, 5.63 COP, 8.58 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1144,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>ffe769c3-76fe-455f-b093-1b472e704598</t>
+          <t>22bf295a-f0a6-4223-bceb-57b4f20edff9</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1163,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1181,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1486,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>791195.6849994762</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1525,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1544,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1560,98 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1812,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1975,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2130,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2174,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2231,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2253,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2262,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>103446.4352360598</v>
+        <v>40408.75809566918</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>392817.2434439262</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>496263.678679986</v>
+        <v>433226.0015395953</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4156509236403</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0343613106251</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2290,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2299,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>201061.500592608</v>
+        <v>78539.63765168791</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>785634.4868878523</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>986695.9874804603</v>
+        <v>864174.1245395403</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7924129583917</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.1279418812169</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2327,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2336,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>350122.2283730879</v>
+        <v>136766.4762730555</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1178451.730331779</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1528573.958704866</v>
+        <v>1315218.206604834</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.169174993143</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.3362375222853</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2364,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2373,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>550628.6185774996</v>
+        <v>215089.2739597718</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>1571268.973775705</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2121897.592353204</v>
+        <v>1786358.247735477</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.5459370278944</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.6592482338303</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2401,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2410,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>122184.4310977394</v>
+        <v>47728.28670237672</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>385973.2758991113</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>508157.7069968507</v>
+        <v>433701.562601488</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3916639046383</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1390110097182</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2438,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2447,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>237481.2144034332</v>
+        <v>92766.08636339892</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>771946.5517982226</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1009427.766201656</v>
+        <v>864712.6381616215</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7444389203878</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2607569372919</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2475,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2484,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>413542.3824979353</v>
+        <v>161539.9705029241</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1157919.827697334</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1571462.210195269</v>
+        <v>1319459.798200258</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0972139361372</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5184818644623</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2512,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2521,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>650367.9353812451</v>
+        <v>254049.9391209523</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1543893.103596445</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2194261.03897769</v>
+        <v>1797943.042717397</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4499889518867</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9121857912291</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2549,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2558,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>137157.5154596776</v>
+        <v>53577.14696079867</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>367792.5036900989</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>504950.0191497765</v>
+        <v>421369.6506508976</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3279431862697</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.2095495771924</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2586,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2595,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>266583.3367089644</v>
+        <v>104134.1012943267</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>735585.0073801979</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1002168.344089162</v>
+        <v>839719.1086745246</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.6169974836506</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.3258154086967</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2623,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2632,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>464219.9109256392</v>
+        <v>181335.8772680869</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1103377.511070297</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1567597.421995936</v>
+        <v>1284713.388338384</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9060517810314</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5952158473939</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2660,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2669,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>730067.2381097019</v>
+        <v>285182.4748820791</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1471170.014760396</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2201237.252870098</v>
+        <v>1756352.489642475</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.1951060784122</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>309.0177508932839</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2697,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2706,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>146277.5191333002</v>
+        <v>57139.64789607075</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>338274.926816889</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>484552.4459501892</v>
+        <v>395414.5747129598</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2244887685344</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.2413460113415</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2734,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2743,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>284309.2411332615</v>
+        <v>111058.281738765</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>676549.8536337781</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>960859.0947670395</v>
+        <v>787608.135372543</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4100886481799</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.3141202088639</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2771,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2780,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>495087.2482262713</v>
+        <v>193393.4292097499</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1014824.780450667</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>1509912.028676938</v>
+        <v>1208218.209660417</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.5956885278254</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.5507391434002</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2808,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2817,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>778611.5404123295</v>
+        <v>304145.0903090254</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1353099.707267556</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2131711.247679885</v>
+        <v>1657244.797576582</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.7812884074709</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.9512028149505</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2845,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2854,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>100966.6016238202</v>
+        <v>39440.07322677222</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>418500.6279565188</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>519467.229580339</v>
+        <v>457940.701183291</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.3977570496936</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.0861012795831</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2882,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2891,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>196241.62385003</v>
+        <v>76656.87356322675</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>837001.2559130376</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1033242.879763068</v>
+        <v>913658.1294762644</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.8677363216092</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.2317335281135</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2919,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2928,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>341729.0452891999</v>
+        <v>133487.8895908218</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1255501.883869556</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1597230.929158756</v>
+        <v>1388989.773460378</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.337715593525</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.4893308800775</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2956,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2965,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>537428.8659413297</v>
+        <v>209933.1213095573</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>1674002.511826075</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2211431.377767405</v>
+        <v>1883935.633135632</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.8076948654407</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.8588933354754</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2993,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +3002,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120440.4240866976</v>
+        <v>47047.03405925257</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>414895.7474586176</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>535336.1715453152</v>
+        <v>461942.7815178701</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.3850949429829</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.199831183126</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3030,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3039,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>234091.5116467948</v>
+        <v>91441.98390982808</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>829791.4949172351</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1063883.00656403</v>
+        <v>921233.4788270632</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.842412108188</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.3826172858004</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3067,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3076,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>407639.6598027468</v>
+        <v>159234.2197735598</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>1244687.242375853</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>1652326.902178599</v>
+        <v>1403921.462149412</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.2997292733931</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.6994414834363</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3104,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3113,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>641084.8685545532</v>
+        <v>250423.7416504477</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>1659582.98983447</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2300667.858389024</v>
+        <v>1910006.731484918</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.7570464385983</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.1503037760338</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3141,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3150,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>136970.5679516021</v>
+        <v>53504.12060070056</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>399954.0622965187</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>536924.6302481208</v>
+        <v>453458.1828972193</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3326124232242</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2813332666794</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3178,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3187,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>266219.9800943072</v>
+        <v>103992.1651366367</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>799908.1245930374</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1066128.104687345</v>
+        <v>903900.2897296741</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7374470686705</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4694064466088</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3215,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3224,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>463587.1730457224</v>
+        <v>181088.7140684157</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>1199862.186889556</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>1663449.359935279</v>
+        <v>1380950.900957972</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1422817141169</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.8104055092355</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3252,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3261,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>729072.1468058473</v>
+        <v>284793.7673960376</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>1599816.249186075</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>2328888.395991922</v>
+        <v>1884610.016582112</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5471163595632</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3043304545596</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3289,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3298,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>148641.6986439811</v>
+        <v>58063.1553878837</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>373675.5724702224</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>522317.2711142035</v>
+        <v>431738.7278581061</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2403094904173</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.326402833686</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3326,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3335,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>288904.3291998835</v>
+        <v>112853.2377629983</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>747351.1449404447</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1036255.474140328</v>
+        <v>860204.3827034431</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5528412030568</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.4839336905341</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3363,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3372,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>503088.9913183819</v>
+        <v>196519.1096666447</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>1121026.717410667</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1624115.708729049</v>
+        <v>1317545.827077312</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8653729156962</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.8079573903559</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3400,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3409,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>791195.6849994762</v>
+        <v>309060.7710988229</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>1494702.289880889</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2285897.974880366</v>
+        <v>1803763.060979712</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1779046283357</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2984739331513</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3437,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3446,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>99994.83539806519</v>
+        <v>39060.47709808524</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>429141.4050135555</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>529136.2404116207</v>
+        <v>468201.8821116408</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.326839360591</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.107661527944</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3474,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3483,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>194352.8707467484</v>
+        <v>75919.07948575288</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>858282.8100271111</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1052635.680773859</v>
+        <v>934201.8895128639</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.8370120545154</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.2749761734576</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3511,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3520,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>338440.0295232853</v>
+        <v>132203.1179874852</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1287424.215040667</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>1625864.244563952</v>
+        <v>1419627.333028152</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.3471847484397</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.553178299664</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3548,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3557,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>532256.3117276758</v>
+        <v>207912.5926032823</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>1716565.620054222</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2248821.931781898</v>
+        <v>1924478.212657504</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.857357442364</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.9422679065633</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3585,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3594,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>119139.6676759554</v>
+        <v>46538.9261575822</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>428775.6115625679</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>547915.2792385233</v>
+        <v>475314.5377201501</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3255521129033</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.2279808054069</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3622,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3631,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>231563.3236502488</v>
+        <v>90454.41061221104</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>857551.2231251359</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1089114.546775385</v>
+        <v>948005.6337373469</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.83443755914</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.4390806172098</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3659,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3668,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>403237.1520502042</v>
+        <v>157514.4904239612</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1286326.834687704</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>1689563.986737908</v>
+        <v>1443841.325111665</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.3433230053766</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.7827709127371</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3696,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3705,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>634161.1528758216</v>
+        <v>247719.1655928328</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>1715102.446250272</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>2349263.599126093</v>
+        <v>1962821.611843104</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.8522084516133</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.2590516919889</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3733,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3742,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>135903.6725393231</v>
+        <v>53087.36463874035</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>417073.0134473826</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>552976.6859867057</v>
+        <v>470160.378086123</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.2843700132153</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3173704769906</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3770,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3779,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>264146.3311369636</v>
+        <v>103182.1461263013</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>834146.0268947652</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1098292.358031729</v>
+        <v>937328.1730210665</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.7520733597639</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.5416158870162</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3807,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3816,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>459976.1854042854</v>
+        <v>179678.1722188458</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1251219.040342148</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1711195.225746433</v>
+        <v>1430897.212560994</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.2197767063126</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>307.9175960046925</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3844,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3853,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>723393.2353412881</v>
+        <v>282575.4429163739</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>1668292.05378953</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2391685.289130819</v>
+        <v>1950867.496705904</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.6874800528612</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.4453108300197</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3881,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3890,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>148544.3500276383</v>
+        <v>58025.12858995905</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>394033.6106679998</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>542577.9606956381</v>
+        <v>452058.7392579589</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2032930615269</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3720355055392</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3918,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3927,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>288715.1195974661</v>
+        <v>112779.3277724219</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>788067.2213359997</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1076782.340933466</v>
+        <v>900846.5491084215</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5899194563872</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.5752113939004</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3955,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3964,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>502759.5076159691</v>
+        <v>196390.405113444</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>1182100.832004</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>1684860.339619969</v>
+        <v>1378491.237117443</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9765458512476</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.944771085524</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3992,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +4001,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>790677.5140831466</v>
+        <v>308858.3606130253</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>1576134.442671999</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>2366811.956755146</v>
+        <v>1884992.803285025</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3631722461079</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.4807145804101</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4029,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4038,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>101345.1048762432</v>
+        <v>39587.92603900962</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>424739.574615037</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>526084.6794912802</v>
+        <v>464327.5006540466</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2027140946561</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.1008570665074</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4066,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4075,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>196977.2937814074</v>
+        <v>76944.24458985956</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>849479.1492300739</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1046456.443011481</v>
+        <v>926423.3938199335</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.6998726337566</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.2611975250351</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4103,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4112,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>343010.1179707514</v>
+        <v>133988.3085368556</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1274218.723845111</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>1617228.841815862</v>
+        <v>1408207.032381966</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.1970311728572</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.533922821395</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4140,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4149,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>539443.5774442751</v>
+        <v>210720.1178799979</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>1698958.298460148</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2238401.875904423</v>
+        <v>1909678.416340146</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.6941897119577</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.9190329555872</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4177,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4186,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>119419.4398438337</v>
+        <v>46648.21214532936</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>427612.8682109629</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>547032.3080547967</v>
+        <v>474261.0803562923</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2128421267482</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.2260048858176</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4214,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4223,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>232107.0969737982</v>
+        <v>90666.82203692613</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>855225.7364219258</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1087332.833395724</v>
+        <v>945892.558458852</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.7201286979408</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.4350934855409</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4251,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4260,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>404184.061961897</v>
+        <v>157884.3770563297</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1282838.604632889</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>1687022.666594786</v>
+        <v>1440722.981689218</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.2274152691335</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.7770839273111</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4288,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4297,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>635650.3348081298</v>
+        <v>248300.87720354</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>1710451.472843852</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>2346101.807651982</v>
+        <v>1958752.350047392</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.7347018403261</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.2519762111282</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4325,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4334,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>135417.4168620346</v>
+        <v>52897.42104144421</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>419149.3571426912</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>554566.7740047259</v>
+        <v>472046.7781841354</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1830092158919</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3209402587837</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4362,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4371,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>263201.2304582963</v>
+        <v>102812.9662254843</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>838298.7142853824</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1101499.944743679</v>
+        <v>941111.6805108667</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.6604628762282</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.5488169881594</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4399,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4408,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>458330.4165491012</v>
+        <v>179035.2938499705</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1257448.071428074</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>1715778.487977175</v>
+        <v>1436483.365278044</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1379165365645</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>307.9278855269575</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4436,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4445,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>720804.9751344491</v>
+        <v>281564.4039149028</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>1676597.428570765</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>2397402.403705214</v>
+        <v>1958161.832485668</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.6153701969009</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.4581458751781</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4473,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4482,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>147769.3705843378</v>
+        <v>57722.40228738533</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>399349.0414102221</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>547118.4119945599</v>
+        <v>457071.4436976074</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1132153620872</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3822618565899</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4510,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4519,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>287208.8470087313</v>
+        <v>112190.9401249846</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>798698.0828204441</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1085906.929829176</v>
+        <v>910889.0229454287</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.5208751686188</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.595762489617</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4547,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4556,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>500136.5314929879</v>
+        <v>195365.8052091323</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>1198047.124230666</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>1698183.655723654</v>
+        <v>1393412.929439798</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9285349751505</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>316.9747788752052</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4584,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1070672056419185</v>
+        <v>0.08666588902172405</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4593,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>786552.4240371075</v>
+        <v>307246.9975398283</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>1597396.165640888</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>2383948.589677996</v>
+        <v>1904643.163180717</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.3361947816821</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5193110133546</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4793,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.06780921920249404</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.08666588902172405</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.08666588902172405</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.08666588902172405</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.08666588902172405</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>